--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-static/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-static/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.621</v>
+        <v>-0.004</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.915</v>
+        <v>-1.569</v>
       </c>
       <c r="D4" t="n">
-        <v>11.22</v>
+        <v>39125</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.121</v>
+        <v>-0.001</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.095</v>
+        <v>-0.011</v>
       </c>
       <c r="D5" t="n">
-        <v>-21.49</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.521</v>
+        <v>2.687</v>
       </c>
       <c r="C6" t="n">
-        <v>12.457</v>
+        <v>6.876</v>
       </c>
       <c r="D6" t="n">
-        <v>8.119999999999999</v>
+        <v>155.9</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.774</v>
+        <v>0.197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.843</v>
+        <v>0.471</v>
       </c>
       <c r="D7" t="n">
-        <v>8.91</v>
+        <v>139.09</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.128</v>
+        <v>10.07</v>
       </c>
       <c r="C8" t="n">
-        <v>22.502</v>
+        <v>15.265</v>
       </c>
       <c r="D8" t="n">
-        <v>1.69</v>
+        <v>51.59</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.920999999999999</v>
+        <v>2.294</v>
       </c>
       <c r="C9" t="n">
-        <v>10.884</v>
+        <v>6.513</v>
       </c>
       <c r="D9" t="n">
-        <v>9.710000000000001</v>
+        <v>183.91</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.657</v>
+        <v>11.839</v>
       </c>
       <c r="C10" t="n">
-        <v>173.656</v>
+        <v>59.231</v>
       </c>
       <c r="D10" t="n">
-        <v>14.51</v>
+        <v>400.3</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.877</v>
+        <v>0.048</v>
       </c>
       <c r="C11" t="n">
-        <v>2.672</v>
+        <v>0.424</v>
       </c>
       <c r="D11" t="n">
-        <v>42.35</v>
+        <v>783.33</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7.986</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.289999999999999</v>
+        <v>-4.01</v>
       </c>
       <c r="D12" t="n">
-        <v>16.33</v>
+        <v>400900</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.315</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>13.178</v>
+        <v>7.696</v>
       </c>
       <c r="D13" t="n">
-        <v>7.01</v>
+        <v>123.66</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.753718018531799</v>
+        <v>4.007945151556106</v>
       </c>
       <c r="C4" t="n">
-        <v>5.609605997800827</v>
+        <v>4.264758081663222</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.5</v>
+        <v>6.41</v>
       </c>
       <c r="E4" t="n">
-        <v>1.041419820610634</v>
+        <v>0.6295686531086649</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9541208112405194</v>
+        <v>2.231997295332096</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.380000000000001</v>
+        <v>254.53</v>
       </c>
     </row>
     <row r="5">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.678</v>
+        <v>1.712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.434</v>
+        <v>0.443</v>
       </c>
       <c r="D5" t="n">
-        <v>-74.14</v>
+        <v>-74.12</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.924714540658584</v>
+        <v>2.489007264913004</v>
       </c>
       <c r="C6" t="n">
-        <v>3.000928379853058</v>
+        <v>2.879742169180743</v>
       </c>
       <c r="D6" t="n">
-        <v>2.61</v>
+        <v>15.7</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6882197922149575</v>
+        <v>0.2504080126352531</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7385781913560089</v>
+        <v>0.3513936528247865</v>
       </c>
       <c r="G6" t="n">
-        <v>7.32</v>
+        <v>40.33</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-static/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-static/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.004</v>
+        <v>-0.044</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.569</v>
+        <v>-0.443</v>
       </c>
       <c r="D4" t="n">
-        <v>39125</v>
+        <v>906.8200000000001</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001</v>
+        <v>-0.006</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.011</v>
+        <v>-0.176</v>
       </c>
       <c r="D5" t="n">
-        <v>1000</v>
+        <v>2833.33</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.687</v>
+        <v>2.793</v>
       </c>
       <c r="C6" t="n">
-        <v>6.876</v>
+        <v>3.862</v>
       </c>
       <c r="D6" t="n">
-        <v>155.9</v>
+        <v>38.27</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.197</v>
+        <v>0.21</v>
       </c>
       <c r="C7" t="n">
-        <v>0.471</v>
+        <v>0.245</v>
       </c>
       <c r="D7" t="n">
-        <v>139.09</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.07</v>
+        <v>10.346</v>
       </c>
       <c r="C8" t="n">
-        <v>15.265</v>
+        <v>15.769</v>
       </c>
       <c r="D8" t="n">
-        <v>51.59</v>
+        <v>52.42</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.294</v>
+        <v>2.658</v>
       </c>
       <c r="C9" t="n">
-        <v>6.513</v>
+        <v>2.544</v>
       </c>
       <c r="D9" t="n">
-        <v>183.91</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.839</v>
+        <v>12.028</v>
       </c>
       <c r="C10" t="n">
-        <v>59.231</v>
+        <v>26.403</v>
       </c>
       <c r="D10" t="n">
-        <v>400.3</v>
+        <v>119.51</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.424</v>
+        <v>0.124</v>
       </c>
       <c r="D11" t="n">
-        <v>783.33</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.001</v>
+        <v>-0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.01</v>
+        <v>-1.233</v>
       </c>
       <c r="D12" t="n">
-        <v>400900</v>
+        <v>7152.94</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.441</v>
+        <v>3.468</v>
       </c>
       <c r="C13" t="n">
-        <v>7.696</v>
+        <v>5.138</v>
       </c>
       <c r="D13" t="n">
-        <v>123.66</v>
+        <v>48.15</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.007945151556106</v>
+        <v>4.190440353893099</v>
       </c>
       <c r="C4" t="n">
-        <v>4.264758081663222</v>
+        <v>4.226121919495719</v>
       </c>
       <c r="D4" t="n">
-        <v>6.41</v>
+        <v>0.85</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6295686531086649</v>
+        <v>0.7319452990994093</v>
       </c>
       <c r="F4" t="n">
-        <v>2.231997295332096</v>
+        <v>0.8041270393372604</v>
       </c>
       <c r="G4" t="n">
-        <v>254.53</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.712</v>
+        <v>2.122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.443</v>
+        <v>0.591</v>
       </c>
       <c r="D5" t="n">
-        <v>-74.12</v>
+        <v>-72.15000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.489007264913004</v>
+        <v>2.428349875964789</v>
       </c>
       <c r="C6" t="n">
-        <v>2.879742169180743</v>
+        <v>2.517581514642616</v>
       </c>
       <c r="D6" t="n">
-        <v>15.7</v>
+        <v>3.67</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2504080126352531</v>
+        <v>0.3502828172321464</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3513936528247865</v>
+        <v>0.2926966564870307</v>
       </c>
       <c r="G6" t="n">
-        <v>40.33</v>
+        <v>-16.44</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-static/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-static/2_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
